--- a/Excel/I18NConfig@c.xlsx
+++ b/Excel/I18NConfig@c.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE284FAF-3716-4A8F-A3B8-2C6C1409D563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19710" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>Id</t>
   </si>
@@ -352,75 +346,77 @@
     <t>???</t>
   </si>
   <si>
+    <t>Update_Skip</t>
+  </si>
+  <si>
     <t>跳过更新</t>
   </si>
   <si>
     <t>Skip</t>
   </si>
   <si>
-    <t>Update_Skip</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>Help_Info</t>
+  </si>
+  <si>
+    <t>帮助:
+1. 右键点击移动
+2. R 热重载 Dll
+3. T 地图传送</t>
   </si>
   <si>
     <t>Help:
 1. Mouse Right Move
 2. R Reload Dll
 3. T Transfer Map</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助:
-1. 右键点击移动
-2. R 热重载 Dll
-3. T 地图传送</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Help_Info</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help_Test</t>
   </si>
   <si>
     <t>测试剧情</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Help_Test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Story Test</t>
   </si>
   <si>
     <t>Help_Setting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Setting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show Story Test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btn_Enter_Map</t>
   </si>
   <si>
     <t>进入地图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Btn_Enter_Map</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Enter map</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intee_Chest</t>
+  </si>
+  <si>
+    <t>华丽的宝箱</t>
+  </si>
+  <si>
+    <t>Gorgeous chest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,20 +457,156 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +619,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -496,9 +814,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -525,24 +1085,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -829,19 +1433,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -892,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
         <v>0</v>
       </c>
@@ -906,7 +1510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:6" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="3:6">
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -1298,7 +1902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15.75">
+    <row r="35" spans="3:6">
       <c r="C35" s="6">
         <v>29</v>
       </c>
@@ -1312,7 +1916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15">
+    <row r="36" spans="3:6">
       <c r="C36" s="6">
         <v>30</v>
       </c>
@@ -1326,7 +1930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15">
+    <row r="37" spans="3:6">
       <c r="C37" s="6">
         <v>31</v>
       </c>
@@ -1354,7 +1958,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15.75">
+    <row r="39" spans="3:6">
       <c r="C39" s="6">
         <v>33</v>
       </c>
@@ -1373,27 +1977,27 @@
         <v>34</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="57">
+    </row>
+    <row r="41" ht="57" spans="3:6">
       <c r="C41" s="3">
         <v>35</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>114</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="3:6">
@@ -1401,13 +2005,13 @@
         <v>36</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="3:6">
@@ -1415,13 +2019,13 @@
         <v>37</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="3:6">
@@ -1429,18 +2033,32 @@
         <v>38</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="3">
+        <v>39</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/I18NConfig@c.xlsx
+++ b/Excel/I18NConfig@c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
   <si>
     <t>Id</t>
   </si>
@@ -404,6 +404,24 @@
   </si>
   <si>
     <t>Gorgeous chest</t>
+  </si>
+  <si>
+    <t>Unit_Chest</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Unit_MuZhuang</t>
+  </si>
+  <si>
+    <t>木桩</t>
+  </si>
+  <si>
+    <t>Stake</t>
   </si>
 </sst>
 </file>
@@ -411,12 +429,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,16 +474,124 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,88 +603,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,44 +611,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -621,187 +633,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,11 +827,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,21 +867,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -865,26 +877,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,16 +904,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,137 +942,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,10 +1097,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1439,10 +1448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F45"/>
+  <dimension ref="C3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1976,7 +1985,7 @@
       <c r="C40" s="3">
         <v>34</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -1990,13 +1999,13 @@
       <c r="C41" s="3">
         <v>35</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2004,13 +2013,13 @@
       <c r="C42" s="3">
         <v>36</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2018,13 +2027,13 @@
       <c r="C43" s="3">
         <v>37</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2032,13 +2041,13 @@
       <c r="C44" s="3">
         <v>38</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2054,6 +2063,34 @@
       </c>
       <c r="F45" s="3" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="3">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="3">
+        <v>41</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/I18NConfig@c.xlsx
+++ b/Excel/I18NConfig@c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t>Stake</t>
+  </si>
+  <si>
+    <t>Unit_Fox</t>
+  </si>
+  <si>
+    <t>狐狸</t>
+  </si>
+  <si>
+    <t>Fox</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -475,7 +484,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,29 +566,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,99 +626,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -633,6 +642,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -645,7 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,31 +792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,127 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,6 +833,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -845,23 +913,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,60 +933,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +951,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1448,10 +1457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F47"/>
+  <dimension ref="C3:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2093,6 +2102,20 @@
         <v>133</v>
       </c>
     </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="3">
+        <v>42</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
